--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Fgf9</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf9</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H2">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.25548833333333</v>
+        <v>13.67700833333333</v>
       </c>
       <c r="N2">
-        <v>30.766465</v>
+        <v>41.031025</v>
       </c>
       <c r="O2">
-        <v>0.09996462463766298</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="P2">
-        <v>0.09996462463766297</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="Q2">
-        <v>14.49708310108556</v>
+        <v>14.82050196905833</v>
       </c>
       <c r="R2">
-        <v>130.47374790977</v>
+        <v>133.384517721525</v>
       </c>
       <c r="S2">
-        <v>0.09967664957492872</v>
+        <v>0.124413831206147</v>
       </c>
       <c r="T2">
-        <v>0.09967664957492871</v>
+        <v>0.124413831206147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H3">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.649396</v>
+        <v>74.64939600000001</v>
       </c>
       <c r="N3">
         <v>223.948188</v>
       </c>
       <c r="O3">
-        <v>0.7276395436298834</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="P3">
-        <v>0.7276395436298831</v>
+        <v>0.6790532788482488</v>
       </c>
       <c r="Q3">
-        <v>105.523838756696</v>
+        <v>80.89060805137201</v>
       </c>
       <c r="R3">
-        <v>949.7145488102641</v>
+        <v>728.015472462348</v>
       </c>
       <c r="S3">
-        <v>0.7255433816727485</v>
+        <v>0.679053278848249</v>
       </c>
       <c r="T3">
-        <v>0.7255433816727482</v>
+        <v>0.6790532788482488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H4">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.869824</v>
+        <v>1.629335666666667</v>
       </c>
       <c r="N4">
-        <v>2.609472</v>
+        <v>4.888007</v>
       </c>
       <c r="O4">
-        <v>0.008478546007235205</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="P4">
-        <v>0.008478546007235204</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="Q4">
-        <v>1.229576827690667</v>
+        <v>1.765559533749667</v>
       </c>
       <c r="R4">
-        <v>11.066191449216</v>
+        <v>15.890035803747</v>
       </c>
       <c r="S4">
-        <v>0.008454121268712166</v>
+        <v>0.01482136207497777</v>
       </c>
       <c r="T4">
-        <v>0.008454121268712164</v>
+        <v>0.01482136207497777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H5">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I5">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.20207433333333</v>
+        <v>19.17462033333333</v>
       </c>
       <c r="N5">
-        <v>48.606223</v>
+        <v>57.523861</v>
       </c>
       <c r="O5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="P5">
-        <v>0.1579285380120706</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="Q5">
-        <v>22.90313346238823</v>
+        <v>20.77775281554233</v>
       </c>
       <c r="R5">
-        <v>206.128201161494</v>
+        <v>186.999775339881</v>
       </c>
       <c r="S5">
-        <v>0.1574735822634105</v>
+        <v>0.174423230537864</v>
       </c>
       <c r="T5">
-        <v>0.1574735822634105</v>
+        <v>0.174423230537864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.413592666666667</v>
+        <v>1.083607</v>
       </c>
       <c r="H6">
-        <v>4.240778000000001</v>
+        <v>3.250821</v>
       </c>
       <c r="I6">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9971192302899344</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6143926666666666</v>
+        <v>0.801214</v>
       </c>
       <c r="N6">
-        <v>1.843178</v>
+        <v>2.403642</v>
       </c>
       <c r="O6">
-        <v>0.005988747713148012</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="P6">
-        <v>0.00598874771314801</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="Q6">
-        <v>0.8685009680537779</v>
+        <v>0.868201098898</v>
       </c>
       <c r="R6">
-        <v>7.816508712484</v>
+        <v>7.813809890082001</v>
       </c>
       <c r="S6">
-        <v>0.005971495510134751</v>
+        <v>0.007288297332762355</v>
       </c>
       <c r="T6">
-        <v>0.005971495510134749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.004084</v>
-      </c>
-      <c r="H7">
-        <v>0.012252</v>
-      </c>
-      <c r="I7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J7">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>10.25548833333333</v>
-      </c>
-      <c r="N7">
-        <v>30.766465</v>
-      </c>
-      <c r="O7">
-        <v>0.09996462463766298</v>
-      </c>
-      <c r="P7">
-        <v>0.09996462463766297</v>
-      </c>
-      <c r="Q7">
-        <v>0.04188341435333334</v>
-      </c>
-      <c r="R7">
-        <v>0.37695072918</v>
-      </c>
-      <c r="S7">
-        <v>0.0002879750627342499</v>
-      </c>
-      <c r="T7">
-        <v>0.0002879750627342498</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.004084</v>
-      </c>
-      <c r="H8">
-        <v>0.012252</v>
-      </c>
-      <c r="I8">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J8">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>74.649396</v>
-      </c>
-      <c r="N8">
-        <v>223.948188</v>
-      </c>
-      <c r="O8">
-        <v>0.7276395436298834</v>
-      </c>
-      <c r="P8">
-        <v>0.7276395436298831</v>
-      </c>
-      <c r="Q8">
-        <v>0.304868133264</v>
-      </c>
-      <c r="R8">
-        <v>2.743813199376</v>
-      </c>
-      <c r="S8">
-        <v>0.002096161957134873</v>
-      </c>
-      <c r="T8">
-        <v>0.002096161957134872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.004084</v>
-      </c>
-      <c r="H9">
-        <v>0.012252</v>
-      </c>
-      <c r="I9">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J9">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.869824</v>
-      </c>
-      <c r="N9">
-        <v>2.609472</v>
-      </c>
-      <c r="O9">
-        <v>0.008478546007235205</v>
-      </c>
-      <c r="P9">
-        <v>0.008478546007235204</v>
-      </c>
-      <c r="Q9">
-        <v>0.003552361216</v>
-      </c>
-      <c r="R9">
-        <v>0.031971250944</v>
-      </c>
-      <c r="S9">
-        <v>2.442473852304022E-05</v>
-      </c>
-      <c r="T9">
-        <v>2.442473852304021E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.004084</v>
-      </c>
-      <c r="H10">
-        <v>0.012252</v>
-      </c>
-      <c r="I10">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J10">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>16.20207433333333</v>
-      </c>
-      <c r="N10">
-        <v>48.606223</v>
-      </c>
-      <c r="O10">
-        <v>0.1579285380120706</v>
-      </c>
-      <c r="P10">
-        <v>0.1579285380120706</v>
-      </c>
-      <c r="Q10">
-        <v>0.06616927157733332</v>
-      </c>
-      <c r="R10">
-        <v>0.5955234441959999</v>
-      </c>
-      <c r="S10">
-        <v>0.0004549557486601056</v>
-      </c>
-      <c r="T10">
-        <v>0.0004549557486601055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.004084</v>
-      </c>
-      <c r="H11">
-        <v>0.012252</v>
-      </c>
-      <c r="I11">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="J11">
-        <v>0.002880769710065529</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.6143926666666666</v>
-      </c>
-      <c r="N11">
-        <v>1.843178</v>
-      </c>
-      <c r="O11">
-        <v>0.005988747713148012</v>
-      </c>
-      <c r="P11">
-        <v>0.00598874771314801</v>
-      </c>
-      <c r="Q11">
-        <v>0.002509179650666666</v>
-      </c>
-      <c r="R11">
-        <v>0.022582616856</v>
-      </c>
-      <c r="S11">
-        <v>1.7252203013261E-05</v>
-      </c>
-      <c r="T11">
-        <v>1.725220301326099E-05</v>
+        <v>0.007288297332762355</v>
       </c>
     </row>
   </sheetData>
